--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1052">
   <si>
     <t>anchor score</t>
   </si>
@@ -355,595 +355,595 @@
     <t>uncertainty</t>
   </si>
   <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>stocked</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>trying</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>bare</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>trying</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3538,7 +3538,7 @@
         <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -3867,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K8">
         <v>0.7952755905511811</v>
@@ -3917,7 +3917,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K9">
         <v>0.7579617834394905</v>
@@ -3967,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>0.7543859649122807</v>
@@ -4067,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K12">
         <v>0.7307692307692307</v>
@@ -4117,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K13">
         <v>0.7301587301587301</v>
@@ -4167,28 +4167,28 @@
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.6767241379310345</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L14">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4217,28 +4217,28 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="K15">
-        <v>0.6732673267326733</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4267,28 +4267,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="K16">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4317,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K17">
         <v>0.6388888888888888</v>
@@ -4417,7 +4417,7 @@
         <v>156</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K19">
         <v>0.5934065934065934</v>
@@ -4517,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K21">
         <v>0.578125</v>
@@ -4567,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K22">
         <v>0.5714285714285714</v>
@@ -4617,28 +4617,28 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="K23">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L23">
         <v>183</v>
       </c>
       <c r="M23">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4767,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K26">
         <v>0.5217391304347826</v>
@@ -5017,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K31">
         <v>0.4740484429065744</v>
@@ -5117,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K33">
         <v>0.4319371727748691</v>
@@ -5267,7 +5267,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>0.417910447761194</v>
@@ -6017,7 +6017,7 @@
         <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K51">
         <v>0.3333333333333333</v>
@@ -6217,7 +6217,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>0.3333333333333333</v>
@@ -6567,7 +6567,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>0.3170731707317073</v>
@@ -6617,7 +6617,7 @@
         <v>16</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K63">
         <v>0.3125</v>
@@ -6967,7 +6967,7 @@
         <v>18</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K70">
         <v>0.2916666666666667</v>
@@ -7417,7 +7417,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K79">
         <v>0.2826086956521739</v>
@@ -7717,7 +7717,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K85">
         <v>0.2676056338028169</v>
@@ -7917,7 +7917,7 @@
         <v>17</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K89">
         <v>0.2564102564102564</v>
@@ -7967,7 +7967,7 @@
         <v>27</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K90">
         <v>0.2547169811320755</v>
@@ -8767,7 +8767,7 @@
         <v>20</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K106">
         <v>0.2321428571428572</v>
@@ -8846,25 +8846,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08536585365853659</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>375</v>
@@ -8967,7 +8967,7 @@
         <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K110">
         <v>0.2305825242718447</v>
@@ -9099,22 +9099,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>379</v>
@@ -9152,13 +9152,13 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F114">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -9196,25 +9196,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>381</v>
@@ -9246,25 +9246,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.08280254777070063</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>382</v>
@@ -9296,25 +9296,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>383</v>
@@ -9349,22 +9349,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>384</v>
@@ -9396,25 +9396,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>385</v>
@@ -9446,25 +9446,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E120">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F120">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>386</v>
@@ -9496,25 +9496,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>387</v>
@@ -9546,25 +9546,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>388</v>
@@ -9596,25 +9596,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>389</v>
@@ -9649,22 +9649,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>390</v>
@@ -9699,10 +9699,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>391</v>
@@ -9749,22 +9749,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F126">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>392</v>
@@ -9802,16 +9802,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>13</v>
@@ -9852,13 +9852,13 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -9946,25 +9946,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>396</v>
@@ -9996,25 +9996,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>397</v>
@@ -10046,25 +10046,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F132">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>398</v>
@@ -10099,22 +10099,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>399</v>
@@ -10152,13 +10152,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -10202,16 +10202,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>14</v>
@@ -10249,22 +10249,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E136">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="F136">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>402</v>
@@ -10296,13 +10296,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>403</v>
@@ -10346,25 +10346,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F138">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>404</v>
@@ -10396,13 +10396,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10414,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K139">
         <v>0.1951219512195122</v>
@@ -10446,25 +10446,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>405</v>
@@ -10552,16 +10552,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>15</v>
@@ -10649,22 +10649,22 @@
         <v>0.0625</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>409</v>
@@ -10696,7 +10696,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10714,10 +10714,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K145">
         <v>0.1923076923076923</v>
@@ -10746,13 +10746,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>410</v>
@@ -10796,7 +10796,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10814,10 +10814,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K147">
         <v>0.1904761904761905</v>
@@ -10902,16 +10902,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>17</v>
@@ -10949,22 +10949,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>413</v>
@@ -10996,28 +10996,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K151">
         <v>0.1875</v>
@@ -11046,25 +11046,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>414</v>
@@ -11102,16 +11102,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>18</v>
@@ -11152,16 +11152,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>18</v>
@@ -11196,28 +11196,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K155">
         <v>0.1851851851851852</v>
@@ -11246,25 +11246,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>417</v>
@@ -11296,13 +11296,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>418</v>
@@ -11349,10 +11349,10 @@
         <v>0.05</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>419</v>
@@ -11402,16 +11402,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>19</v>
@@ -11446,25 +11446,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>421</v>
@@ -11496,25 +11496,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>422</v>
@@ -11546,25 +11546,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>423</v>
@@ -11602,16 +11602,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>21</v>
@@ -11646,7 +11646,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>425</v>
@@ -11696,28 +11696,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K165">
         <v>0.1772151898734177</v>
@@ -11752,16 +11752,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>22</v>
@@ -11802,16 +11802,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>22</v>
@@ -11896,25 +11896,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>429</v>
@@ -11946,28 +11946,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K170">
         <v>0.1739130434782609</v>
@@ -11996,25 +11996,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>430</v>
@@ -12046,25 +12046,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04081632653061224</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>431</v>
@@ -12096,28 +12096,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K173">
         <v>0.1694915254237288</v>
@@ -12152,13 +12152,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -12167,7 +12167,7 @@
         <v>25</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K174">
         <v>0.1690140845070423</v>
@@ -12196,25 +12196,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>432</v>
@@ -12246,28 +12246,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K176">
         <v>0.1670103092783505</v>
@@ -12296,25 +12296,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0379746835443038</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>433</v>
@@ -12399,22 +12399,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>435</v>
@@ -12452,13 +12452,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12502,16 +12502,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>26</v>
@@ -12552,13 +12552,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12596,25 +12596,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>439</v>
@@ -12646,25 +12646,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>440</v>
@@ -12702,16 +12702,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>27</v>
@@ -12752,16 +12752,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>27</v>
@@ -12796,25 +12796,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F187">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>443</v>
@@ -12846,7 +12846,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>444</v>
@@ -12896,28 +12896,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K189">
         <v>0.1666666666666667</v>
@@ -12946,7 +12946,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12964,10 +12964,10 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K190">
         <v>0.1666666666666667</v>
@@ -12996,25 +12996,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>445</v>
@@ -13046,25 +13046,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03333333333333333</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>446</v>
@@ -13096,25 +13096,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>447</v>
@@ -13146,25 +13146,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03061224489795918</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>448</v>
@@ -13196,25 +13196,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>449</v>
@@ -13252,13 +13252,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13352,13 +13352,13 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E198">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -13446,25 +13446,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>454</v>
@@ -13496,25 +13496,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>455</v>
@@ -13546,7 +13546,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>456</v>
@@ -13596,25 +13596,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>457</v>
@@ -13646,25 +13646,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>458</v>
@@ -13696,25 +13696,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>459</v>
@@ -13746,7 +13746,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13764,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>460</v>
@@ -13796,25 +13796,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02631578947368421</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>461</v>
@@ -13846,13 +13846,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>0.5</v>
@@ -13864,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>462</v>
@@ -13896,25 +13896,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02521008403361345</v>
+        <v>0.025</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>463</v>
@@ -13946,25 +13946,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>464</v>
@@ -13996,28 +13996,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K211">
         <v>0.1664791901012374</v>
@@ -14046,28 +14046,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K212">
         <v>0.1612903225806452</v>
@@ -14096,25 +14096,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>465</v>
@@ -14146,25 +14146,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>466</v>
@@ -14196,25 +14196,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>467</v>
@@ -14246,25 +14246,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>468</v>
@@ -14296,25 +14296,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E217">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>469</v>
@@ -14346,25 +14346,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>470</v>
@@ -14396,25 +14396,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>7</v>
@@ -14446,25 +14446,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02083333333333333</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>471</v>
@@ -14496,25 +14496,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>472</v>
@@ -14546,28 +14546,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02013422818791946</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K222">
         <v>0.1515151515151515</v>
@@ -14596,13 +14596,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E223">
         <v>0.88</v>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>473</v>
@@ -14646,7 +14646,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>474</v>
@@ -14696,25 +14696,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01923076923076923</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>475</v>
@@ -14746,25 +14746,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01886792452830189</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>476</v>
@@ -14796,28 +14796,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01863354037267081</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
         <v>3</v>
       </c>
-      <c r="D227">
-        <v>57</v>
-      </c>
       <c r="E227">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K227">
         <v>0.1475409836065574</v>
@@ -14846,28 +14846,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01857585139318885</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C228">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K228">
         <v>0.1466666666666667</v>
@@ -14896,28 +14896,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K229">
         <v>0.1461538461538462</v>
@@ -14946,25 +14946,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>477</v>
@@ -14996,25 +14996,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>478</v>
@@ -15046,28 +15046,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K232">
         <v>0.1448598130841121</v>
@@ -15096,28 +15096,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K233">
         <v>0.1439732142857143</v>
@@ -15146,25 +15146,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>479</v>
@@ -15196,25 +15196,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>480</v>
@@ -15246,25 +15246,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>481</v>
@@ -15296,25 +15296,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>482</v>
@@ -15346,7 +15346,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>483</v>
@@ -15396,25 +15396,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>484</v>
@@ -15446,25 +15446,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>485</v>
@@ -15496,25 +15496,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>486</v>
@@ -15546,25 +15546,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>487</v>
@@ -15596,25 +15596,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>488</v>
@@ -15646,25 +15646,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01515151515151515</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>489</v>
@@ -15696,25 +15696,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01470588235294118</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>490</v>
@@ -15746,25 +15746,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01449275362318841</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>491</v>
@@ -15796,25 +15796,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>492</v>
@@ -15846,25 +15846,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E248">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F248">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>493</v>
@@ -15896,25 +15896,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01265822784810127</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>494</v>
@@ -15946,25 +15946,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="D250">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="F250">
-        <v>0.06999999999999995</v>
+        <v>0.29</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>495</v>
@@ -15996,25 +15996,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01219512195121951</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
       <c r="F251">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>496</v>
@@ -16046,25 +16046,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01204819277108434</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="F252">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>497</v>
@@ -16096,28 +16096,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01195219123505976</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="F253">
-        <v>0.75</v>
+        <v>0.12</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K253">
         <v>0.1428571428571428</v>
@@ -16146,25 +16146,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01123595505617977</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E254">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F254">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>498</v>
@@ -16196,25 +16196,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01111111111111111</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E255">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F255">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>499</v>
@@ -16246,25 +16246,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01052631578947368</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>500</v>
@@ -16296,25 +16296,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01038062283737024</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>501</v>
@@ -16346,25 +16346,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01020408163265306</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>502</v>
@@ -16396,25 +16396,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01020408163265306</v>
+        <v>0.009771986970684038</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>503</v>
@@ -16446,25 +16446,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>504</v>
@@ -16496,28 +16496,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009771986970684038</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E261">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K261">
         <v>0.1428571428571428</v>
@@ -16546,25 +16546,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.009433962264150943</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>505</v>
@@ -16596,25 +16596,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.009216589861751152</v>
+        <v>0.008670520231213872</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>506</v>
@@ -16646,25 +16646,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.008928571428571428</v>
+        <v>0.008635578583765112</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D264">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E264">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>507</v>
@@ -16696,25 +16696,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.008670520231213872</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E265">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F265">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>343</v>
+        <v>115</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>508</v>
@@ -16746,25 +16746,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.008635578583765112</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C266">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>574</v>
+        <v>233</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>509</v>
@@ -16796,25 +16796,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.008620689655172414</v>
+        <v>0.008501594048884165</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D267">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E267">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="F267">
-        <v>0.05000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>115</v>
+        <v>933</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>510</v>
@@ -16846,25 +16846,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.008510638297872341</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>0.6699999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>511</v>
@@ -16896,25 +16896,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.008501594048884165</v>
+        <v>0.008461131676361713</v>
       </c>
       <c r="C269">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D269">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="E269">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>0.23</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>933</v>
+        <v>1875</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>512</v>
@@ -16946,25 +16946,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.008474576271186441</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>513</v>
@@ -16996,25 +16996,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.008461131676361713</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C271">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F271">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>1875</v>
+        <v>125</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>514</v>
@@ -17046,28 +17046,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.007936507936507936</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K272">
         <v>0.1353383458646616</v>
@@ -17096,25 +17096,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.007936507936507936</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E273">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F273">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>515</v>
@@ -17146,13 +17146,13 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.007633587786259542</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E274">
         <v>0.97</v>
@@ -17164,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>516</v>
@@ -17196,28 +17196,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.007575757575757576</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F275">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K275">
         <v>0.1333333333333333</v>
@@ -17246,13 +17246,13 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.007518796992481203</v>
+        <v>0.006702412868632708</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="E276">
         <v>0.97</v>
@@ -17264,7 +17264,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>132</v>
+        <v>741</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>517</v>
@@ -17296,25 +17296,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.007462686567164179</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E277">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F277">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>518</v>
@@ -17346,28 +17346,28 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.006702412868632708</v>
+        <v>0.006476683937823834</v>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
       <c r="D278">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E278">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F278">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K278">
         <v>0.131578947368421</v>
@@ -17396,25 +17396,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.006622516556291391</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E279">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F279">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>519</v>
@@ -17446,28 +17446,28 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.006476683937823834</v>
+        <v>0.006313131313131313</v>
       </c>
       <c r="C280">
         <v>5</v>
       </c>
       <c r="D280">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K280">
         <v>0.1296296296296296</v>
@@ -17496,25 +17496,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.00641025641025641</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E281">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>520</v>
@@ -17546,28 +17546,28 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.006313131313131313</v>
+        <v>0.005870841487279843</v>
       </c>
       <c r="C282">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E282">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F282">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>787</v>
+        <v>508</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K282">
         <v>0.1290322580645161</v>
@@ -17596,25 +17596,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.006024096385542169</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>165</v>
+        <v>517</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>521</v>
@@ -17646,25 +17646,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.005870841487279843</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D284">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E284">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F284">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>508</v>
+        <v>1086</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>522</v>
@@ -17696,28 +17696,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.00576923076923077</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E285">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F285">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>517</v>
+        <v>183</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K285">
         <v>0.1284403669724771</v>
@@ -17746,25 +17746,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.005494505494505495</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E286">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F286">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>1086</v>
+        <v>186</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>523</v>
@@ -17796,28 +17796,28 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.005434782608695652</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E287">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F287">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K287">
         <v>0.1282051282051282</v>
@@ -17846,25 +17846,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.0053475935828877</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E288">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F288">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>524</v>
@@ -17896,25 +17896,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.005235602094240838</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>525</v>
@@ -17946,25 +17946,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.004830917874396135</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E290">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F290">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>526</v>
@@ -17996,25 +17996,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.004608294930875576</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E291">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F291">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>527</v>
@@ -18046,25 +18046,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.004587155963302753</v>
+        <v>0.004014598540145986</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D292">
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="E292">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F292">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>217</v>
+        <v>2729</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>528</v>
@@ -18096,25 +18096,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.004504504504504504</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E293">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F293">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>529</v>
@@ -18146,25 +18146,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.004014598540145986</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C294">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="E294">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F294">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>2729</v>
+        <v>291</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>530</v>
@@ -18196,25 +18196,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.003436426116838488</v>
+        <v>0.003348961821835231</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="E295">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F295">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>290</v>
+        <v>2976</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>531</v>
@@ -18246,7 +18246,7 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.003424657534246575</v>
+        <v>0.002890173410404624</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -18264,7 +18264,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>532</v>
@@ -18296,28 +18296,28 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.003348961821835231</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C297">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F297">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297">
-        <v>2976</v>
+        <v>372</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K297">
         <v>0.125</v>
@@ -18346,25 +18346,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.002890173410404624</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E298">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F298">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>533</v>
@@ -18392,30 +18392,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0.002680965147453083</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>1</v>
-      </c>
-      <c r="G299" t="b">
-        <v>0</v>
-      </c>
-      <c r="H299">
-        <v>372</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>534</v>
       </c>
@@ -18442,30 +18418,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0.002469135802469136</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>82</v>
-      </c>
-      <c r="E300">
-        <v>0.99</v>
-      </c>
-      <c r="F300">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>404</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>535</v>
       </c>
@@ -18493,7 +18445,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="J301" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K301">
         <v>0.125</v>
@@ -19247,7 +19199,7 @@
     </row>
     <row r="330" spans="10:17">
       <c r="J330" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K330">
         <v>0.1213872832369942</v>
@@ -19377,7 +19329,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K335">
         <v>0.12</v>
@@ -19429,7 +19381,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K337">
         <v>0.1185400516795866</v>
@@ -19455,7 +19407,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K338">
         <v>0.1184767277856135</v>
@@ -19663,7 +19615,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K346">
         <v>0.1172839506172839</v>
@@ -19689,7 +19641,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K347">
         <v>0.1157894736842105</v>
@@ -19767,7 +19719,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K350">
         <v>0.1136363636363636</v>
@@ -20573,7 +20525,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K381">
         <v>0.110077519379845</v>
@@ -20625,7 +20577,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K383">
         <v>0.1071428571428571</v>
@@ -20885,7 +20837,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K393">
         <v>0.104</v>
@@ -20937,7 +20889,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K395">
         <v>0.1027397260273973</v>
@@ -21457,7 +21409,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K415">
         <v>0.1</v>
@@ -21535,7 +21487,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K418">
         <v>0.1</v>
@@ -21977,7 +21929,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K435">
         <v>0.09929078014184398</v>
@@ -22003,7 +21955,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K436">
         <v>0.0990990990990991</v>
@@ -22029,7 +21981,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K437">
         <v>0.0975609756097561</v>
@@ -22185,7 +22137,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K443">
         <v>0.09615384615384616</v>
@@ -22601,7 +22553,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K459">
         <v>0.09090909090909091</v>
@@ -22757,7 +22709,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K465">
         <v>0.09090909090909091</v>
@@ -23329,7 +23281,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K487">
         <v>0.08888888888888889</v>
@@ -23433,7 +23385,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K491">
         <v>0.08700696055684455</v>
@@ -23485,7 +23437,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K493">
         <v>0.08695652173913043</v>
@@ -23563,7 +23515,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K496">
         <v>0.08536585365853659</v>
@@ -23615,7 +23567,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K498">
         <v>0.0851063829787234</v>
@@ -23667,7 +23619,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K500">
         <v>0.0851063829787234</v>
@@ -23823,7 +23775,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K506">
         <v>0.08333333333333333</v>
@@ -24369,7 +24321,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K527">
         <v>0.08088235294117647</v>
@@ -24447,7 +24399,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K530">
         <v>0.08035714285714286</v>
@@ -24499,7 +24451,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K532">
         <v>0.08</v>
@@ -24603,7 +24555,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K536">
         <v>0.08</v>
@@ -24655,7 +24607,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K538">
         <v>0.07954545454545454</v>
@@ -25227,7 +25179,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K560">
         <v>0.0759493670886076</v>
@@ -25461,7 +25413,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K569">
         <v>0.07407407407407407</v>
@@ -25487,7 +25439,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K570">
         <v>0.07368421052631578</v>
@@ -25539,7 +25491,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K572">
         <v>0.07291666666666667</v>
@@ -25565,7 +25517,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K573">
         <v>0.07142857142857142</v>
@@ -25591,7 +25543,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K574">
         <v>0.07142857142857142</v>
@@ -25773,7 +25725,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K581">
         <v>0.07142857142857142</v>
@@ -25825,7 +25777,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K583">
         <v>0.07142857142857142</v>
@@ -26293,7 +26245,7 @@
     </row>
     <row r="601" spans="10:17">
       <c r="J601" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K601">
         <v>0.07142857142857142</v>
@@ -26345,7 +26297,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K603">
         <v>0.07017543859649122</v>
@@ -26475,7 +26427,7 @@
     </row>
     <row r="608" spans="10:17">
       <c r="J608" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K608">
         <v>0.0673769978063303</v>
@@ -26631,7 +26583,7 @@
     </row>
     <row r="614" spans="10:17">
       <c r="J614" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K614">
         <v>0.06666666666666667</v>
@@ -26709,7 +26661,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K617">
         <v>0.06666666666666667</v>
@@ -27073,7 +27025,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K631">
         <v>0.06451612903225806</v>
@@ -27853,7 +27805,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K661">
         <v>0.06122448979591837</v>
@@ -27905,7 +27857,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K663">
         <v>0.06060606060606061</v>
@@ -27983,7 +27935,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K666">
         <v>0.05974025974025974</v>
@@ -28035,7 +27987,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K668">
         <v>0.05882352941176471</v>
@@ -29647,7 +29599,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K730">
         <v>0.04878048780487805</v>
@@ -29699,7 +29651,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K732">
         <v>0.04761904761904762</v>
@@ -29881,7 +29833,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K739">
         <v>0.04615384615384616</v>
@@ -29907,7 +29859,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K740">
         <v>0.04615384615384616</v>
@@ -29933,7 +29885,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K741">
         <v>0.04612546125461255</v>
@@ -29959,7 +29911,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K742">
         <v>0.04590163934426229</v>
@@ -29985,7 +29937,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K743">
         <v>0.04545454545454546</v>
@@ -30271,7 +30223,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K754">
         <v>0.04424778761061947</v>
@@ -31207,7 +31159,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K790">
         <v>0.03899721448467967</v>
@@ -31259,7 +31211,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K792">
         <v>0.03846153846153846</v>
@@ -31389,7 +31341,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K797">
         <v>0.03703703703703703</v>
@@ -31519,7 +31471,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K802">
         <v>0.03636363636363636</v>
@@ -31675,7 +31627,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K808">
         <v>0.03493449781659388</v>
@@ -31701,7 +31653,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K809">
         <v>0.03448275862068965</v>
@@ -32247,7 +32199,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K830">
         <v>0.03</v>
@@ -32273,7 +32225,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K831">
         <v>0.02958579881656805</v>
@@ -32377,7 +32329,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K835">
         <v>0.0291970802919708</v>
@@ -32403,7 +32355,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K836">
         <v>0.028125</v>
@@ -32507,7 +32459,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K840">
         <v>0.02702702702702703</v>
@@ -32637,7 +32589,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K845">
         <v>0.02666666666666667</v>
@@ -32689,7 +32641,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K847">
         <v>0.02631578947368421</v>
@@ -32767,7 +32719,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K850">
         <v>0.02564102564102564</v>
@@ -32819,7 +32771,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K852">
         <v>0.025</v>
@@ -33417,7 +33369,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K875">
         <v>0.02040816326530612</v>
@@ -33443,7 +33395,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K876">
         <v>0.0202020202020202</v>
@@ -33521,7 +33473,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K879">
         <v>0.01923076923076923</v>
@@ -33599,7 +33551,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K882">
         <v>0.01818181818181818</v>
@@ -33651,7 +33603,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K884">
         <v>0.01724137931034483</v>
@@ -33963,7 +33915,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K896">
         <v>0.01063829787234043</v>
@@ -34041,7 +33993,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K899">
         <v>0.00684931506849315</v>
@@ -34067,7 +34019,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K900">
         <v>0.004273504273504274</v>
@@ -34093,7 +34045,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K901">
         <v>0.004016064257028112</v>
